--- a/config_debug/common_question_answer_server.xlsx
+++ b/config_debug/common_question_answer_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -534,7 +534,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -606,10 +606,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="7">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="D2" s="8">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="E2" s="8">
         <v>9999</v>
@@ -643,10 +643,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="7">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="D3" s="8">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="E3" s="8">
         <v>9999</v>

--- a/config_debug/common_question_answer_server.xlsx
+++ b/config_debug/common_question_answer_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -534,7 +534,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -698,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="5">
-        <v>1614038400</v>
+        <v>1614009600</v>
       </c>
       <c r="J4" s="5">
         <v>1614614399</v>

--- a/config_debug/common_question_answer_server.xlsx
+++ b/config_debug/common_question_answer_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -534,7 +534,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -698,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="5">
-        <v>1614009600</v>
+        <v>1614038400</v>
       </c>
       <c r="J4" s="5">
         <v>1614614399</v>
